--- a/Usability_Tests/UB-Protocol Wettermonitor_T5_AS.xlsx
+++ b/Usability_Tests/UB-Protocol Wettermonitor_T5_AS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samlu\Documents\FHNW\HS20\gdv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman Studer\Dropbox\01_SG DS\Kompetenzen\gdv_GrundlagenDatenvisualisierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DEF134-3964-4D42-AA17-0634113F2BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDC519A-3D54-422E-B6EF-23DDBE18EFD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3F1E84BA-F577-4401-86F6-6D87C2FA444C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3F1E84BA-F577-4401-86F6-6D87C2FA444C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
   <si>
     <t>Station</t>
   </si>
@@ -331,7 +331,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Date: </t>
+      <t>Procedure:</t>
     </r>
     <r>
       <rPr>
@@ -341,8 +341,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>07.01.2020</t>
+      <t xml:space="preserve"> 1. Begrüssung, 2. Produktvorstellung, 3. Erklären der Aufgabenstellung, 4. Durchführen der Aufträge/Beantworten der Fragestellungen via Testperson, 5. Nachbefragung, 6. Debriefing 7. Auswärtung der Testresultate durch den Moderator.</t>
     </r>
+  </si>
+  <si>
+    <t>Tasks</t>
   </si>
   <si>
     <r>
@@ -364,7 +367,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> __  / 5</t>
+      <t xml:space="preserve"> 5  / 5</t>
     </r>
   </si>
   <si>
@@ -377,7 +380,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Procedure:</t>
+      <t xml:space="preserve">Date: </t>
     </r>
     <r>
       <rPr>
@@ -387,14 +390,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 1. Begrüssung, 2. Produktvorstellung, 3. Erklären der Aufgabenstellung, 4. Durchführen der Aufträge/Beantworten der Fragestellungen via Testperson, 5. Nachbefragung, 6. Debriefing 7. Auswärtung der Testresultate durch den Moderator.</t>
+      <t>09.01.2020</t>
     </r>
   </si>
   <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderator: </t>
+    <t>Moderator: Roman Studer</t>
+  </si>
+  <si>
+    <t>Richtig</t>
+  </si>
+  <si>
+    <t>7-11 Uhr (4h)</t>
+  </si>
+  <si>
+    <t>Osten</t>
+  </si>
+  <si>
+    <t>Kompass schwer verständlich</t>
+  </si>
+  <si>
+    <t>Hat aktuelle Lufttemperatur mit historischer Lufttemperatur verwehselt</t>
+  </si>
+  <si>
+    <t>Wieder historischer Wert mit aktuellem verwechselt</t>
+  </si>
+  <si>
+    <t>Evtl. unnötige Informationen für Segler</t>
+  </si>
+  <si>
+    <t>Warnungen sollten hervorgehoben werden, zum Beispiel mit grossen, roten Zahlen. Ein Symbol (blinked) bei Starkwindwarnung etc. einblenden. Historische Daten sollten nicht über die aktuellen gelegt werden.</t>
   </si>
 </sst>
 </file>
@@ -932,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,6 +1032,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,9 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1412,25 +1437,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A6C56F-17AE-44D4-8CA9-39029899ABD2}">
-  <dimension ref="B2:H45"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="81" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="82.140625" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="3" max="3" width="82.1796875" customWidth="1"/>
+    <col min="4" max="4" width="38.54296875" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="54.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="23" t="s">
         <v>68</v>
       </c>
@@ -1440,29 +1465,29 @@
       <c r="D3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="29" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="25" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>70</v>
-      </c>
       <c r="E4" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
       <c r="D5" s="16"/>
@@ -1470,18 +1495,18 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="2:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
@@ -1504,471 +1529,643 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="57" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.9</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="58"/>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3.5</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.5</v>
+      </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="34"/>
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.9</v>
+      </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="34"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>16.23</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="34"/>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3.2</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="34"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.1</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="34"/>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.4</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="34"/>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>982</v>
+      </c>
       <c r="E16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16.8</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="34"/>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2.7</v>
+      </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B18" s="34"/>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="59">
+        <v>0.03</v>
+      </c>
       <c r="E18" s="5">
         <v>0.03</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10.6</v>
+      </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B19" s="35"/>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B21" s="34"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.3</v>
+      </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="34"/>
       <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>21.2</v>
+      </c>
       <c r="E22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="2">
+        <v>21.2</v>
+      </c>
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="34"/>
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.6</v>
+      </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="34"/>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="E24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5.3</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="34"/>
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
       <c r="E25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.8</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B26" s="34"/>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="E26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.9</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B27" s="35"/>
       <c r="C27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="E27" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.9</v>
+      </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="E28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>9.6</v>
+      </c>
       <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
+      <c r="I28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B29" s="35"/>
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>8.5</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="E30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="2">
+        <v>6.7</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B31" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="15">
+        <v>0.86</v>
+      </c>
       <c r="E31" s="15">
         <v>0.86</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5.17</v>
+      </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B32" s="34"/>
       <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.9</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="35"/>
       <c r="C33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.5</v>
+      </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" s="33" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B35" s="34"/>
       <c r="C35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="35"/>
       <c r="C36" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="32" t="s">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="52"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52"/>
-    </row>
-    <row r="45" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="46"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="55"/>
+      <c r="C37" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" s="34"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" s="34"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" s="34"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B41" s="34"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" s="34"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B43" s="34"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" s="34"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="47"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
